--- a/biology/Botanique/Joseph_Musch_(pomme)/Joseph_Musch_(pomme).xlsx
+++ b/biology/Botanique/Joseph_Musch_(pomme)/Joseph_Musch_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Musch est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh "Joseph Mush".
@@ -512,7 +524,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage: pomme de conservation, pomme de table ou à cuire.
 Epiderme: mi-rugueux, couleur panachée: grise, jaune verdâtre, striée de rouge.
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Joseph Musch est une pomme que l'on trouve à Liège en Belgique (Europe) depuis le milieu du XIXe siècle.
 Cette variété est labellisée RGF en Wallonie (Belgique).
@@ -578,15 +594,17 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Particularité: variété triploïde.
 Groupe de floraison: B.
 Parenté: inconnue.
-S-génotype: S1S10S46 [1].
+S-génotype: S1S10S46 .
 Pollinisateurs:
 Compatibilité avec Santana, ...
-Fécondé aussi par: "Président Roulin"[2].</t>
+Fécondé aussi par: "Président Roulin".</t>
         </is>
       </c>
     </row>
@@ -614,7 +632,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité: octobre.
 Conservation: jusque mars.
